--- a/biology/Histoire de la zoologie et de la botanique/Anders_Gustaf_Dahlbom/Anders_Gustaf_Dahlbom.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Anders_Gustaf_Dahlbom/Anders_Gustaf_Dahlbom.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Anders Gustaf Dahlbom (3 mars 1806-3 mai 1859) est un  entomologiste suédois.
 Dahlbom est né à Härberga dans le comté d'Östergötland, fils d'un chirurgien de l'armée. Il s'inscrit à l'université de Lund en 1825, obtient une maîtrise de philosophie en 1829. Il devient ensuite docent en histoire naturelle en 1830, adjoint en entomologie en 1841 puis professeur extraordinaire en 1857.
